--- a/Conv-2019(html-map)/china-map(dynamic)/china_data.xlsx
+++ b/Conv-2019(html-map)/china-map(dynamic)/china_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC35"/>
+  <dimension ref="A1:FE35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,6 +1157,16 @@
           <t>6月25日</t>
         </is>
       </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>6月26日</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>6月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1638,6 +1648,12 @@
       <c r="FC2" t="n">
         <v>68135</v>
       </c>
+      <c r="FD2" t="n">
+        <v>68135</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>68135</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2119,6 +2135,12 @@
       <c r="FC3" t="n">
         <v>1635</v>
       </c>
+      <c r="FD3" t="n">
+        <v>1637</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>1637</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2600,6 +2622,12 @@
       <c r="FC4" t="n">
         <v>1276</v>
       </c>
+      <c r="FD4" t="n">
+        <v>1276</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>1276</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3081,6 +3109,12 @@
       <c r="FC5" t="n">
         <v>1269</v>
       </c>
+      <c r="FD5" t="n">
+        <v>1269</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>1269</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3562,6 +3596,12 @@
       <c r="FC6" t="n">
         <v>1193</v>
       </c>
+      <c r="FD6" t="n">
+        <v>1196</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>1197</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4043,6 +4083,12 @@
       <c r="FC7" t="n">
         <v>1019</v>
       </c>
+      <c r="FD7" t="n">
+        <v>1019</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>1019</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4524,6 +4570,12 @@
       <c r="FC8" t="n">
         <v>991</v>
       </c>
+      <c r="FD8" t="n">
+        <v>991</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>991</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5005,6 +5057,12 @@
       <c r="FC9" t="n">
         <v>947</v>
       </c>
+      <c r="FD9" t="n">
+        <v>947</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>947</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5486,6 +5544,12 @@
       <c r="FC10" t="n">
         <v>932</v>
       </c>
+      <c r="FD10" t="n">
+        <v>932</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>932</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5967,6 +6031,12 @@
       <c r="FC11" t="n">
         <v>874</v>
       </c>
+      <c r="FD11" t="n">
+        <v>891</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6448,6 +6518,12 @@
       <c r="FC12" t="n">
         <v>792</v>
       </c>
+      <c r="FD12" t="n">
+        <v>792</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>792</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6929,6 +7005,12 @@
       <c r="FC13" t="n">
         <v>705</v>
       </c>
+      <c r="FD13" t="n">
+        <v>706</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>707</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -7410,6 +7492,12 @@
       <c r="FC14" t="n">
         <v>654</v>
       </c>
+      <c r="FD14" t="n">
+        <v>654</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>654</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7891,6 +7979,12 @@
       <c r="FC15" t="n">
         <v>589</v>
       </c>
+      <c r="FD15" t="n">
+        <v>589</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>589</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -8372,6 +8466,12 @@
       <c r="FC16" t="n">
         <v>582</v>
       </c>
+      <c r="FD16" t="n">
+        <v>582</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>582</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -8853,6 +8953,12 @@
       <c r="FC17" t="n">
         <v>447</v>
       </c>
+      <c r="FD17" t="n">
+        <v>447</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>447</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -9334,6 +9440,12 @@
       <c r="FC18" t="n">
         <v>363</v>
       </c>
+      <c r="FD18" t="n">
+        <v>363</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -9815,6 +9927,12 @@
       <c r="FC19" t="n">
         <v>349</v>
       </c>
+      <c r="FD19" t="n">
+        <v>349</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -10296,6 +10414,12 @@
       <c r="FC20" t="n">
         <v>319</v>
       </c>
+      <c r="FD20" t="n">
+        <v>319</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -10777,6 +10901,12 @@
       <c r="FC21" t="n">
         <v>254</v>
       </c>
+      <c r="FD21" t="n">
+        <v>254</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -11258,6 +11388,12 @@
       <c r="FC22" t="n">
         <v>238</v>
       </c>
+      <c r="FD22" t="n">
+        <v>238</v>
+      </c>
+      <c r="FE22" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -11739,6 +11875,12 @@
       <c r="FC23" t="n">
         <v>198</v>
       </c>
+      <c r="FD23" t="n">
+        <v>198</v>
+      </c>
+      <c r="FE23" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -12220,6 +12362,12 @@
       <c r="FC24" t="n">
         <v>198</v>
       </c>
+      <c r="FD24" t="n">
+        <v>198</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -12701,6 +12849,12 @@
       <c r="FC25" t="n">
         <v>185</v>
       </c>
+      <c r="FD25" t="n">
+        <v>185</v>
+      </c>
+      <c r="FE25" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -13182,6 +13336,12 @@
       <c r="FC26" t="n">
         <v>173</v>
       </c>
+      <c r="FD26" t="n">
+        <v>171</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -13663,6 +13823,12 @@
       <c r="FC27" t="n">
         <v>161</v>
       </c>
+      <c r="FD27" t="n">
+        <v>163</v>
+      </c>
+      <c r="FE27" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -14144,6 +14310,12 @@
       <c r="FC28" t="n">
         <v>155</v>
       </c>
+      <c r="FD28" t="n">
+        <v>155</v>
+      </c>
+      <c r="FE28" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -14625,6 +14797,12 @@
       <c r="FC29" t="n">
         <v>154</v>
       </c>
+      <c r="FD29" t="n">
+        <v>154</v>
+      </c>
+      <c r="FE29" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -15106,6 +15284,12 @@
       <c r="FC30" t="n">
         <v>147</v>
       </c>
+      <c r="FD30" t="n">
+        <v>147</v>
+      </c>
+      <c r="FE30" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -15587,6 +15771,12 @@
       <c r="FC31" t="n">
         <v>76</v>
       </c>
+      <c r="FD31" t="n">
+        <v>76</v>
+      </c>
+      <c r="FE31" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -16068,6 +16258,12 @@
       <c r="FC32" t="n">
         <v>75</v>
       </c>
+      <c r="FD32" t="n">
+        <v>75</v>
+      </c>
+      <c r="FE32" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -16549,6 +16745,12 @@
       <c r="FC33" t="n">
         <v>45</v>
       </c>
+      <c r="FD33" t="n">
+        <v>46</v>
+      </c>
+      <c r="FE33" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -17030,6 +17232,12 @@
       <c r="FC34" t="n">
         <v>18</v>
       </c>
+      <c r="FD34" t="n">
+        <v>18</v>
+      </c>
+      <c r="FE34" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -17509,6 +17717,12 @@
         <v>1</v>
       </c>
       <c r="FC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE35" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Conv-2019(html-map)/china-map(dynamic)/china_data.xlsx
+++ b/Conv-2019(html-map)/china-map(dynamic)/china_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FE35"/>
+  <dimension ref="A1:FF35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1167,6 +1167,11 @@
           <t>6月27日</t>
         </is>
       </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>6月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1654,6 +1659,9 @@
       <c r="FE2" t="n">
         <v>68135</v>
       </c>
+      <c r="FF2" t="n">
+        <v>68135</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2141,6 +2149,9 @@
       <c r="FE3" t="n">
         <v>1637</v>
       </c>
+      <c r="FF3" t="n">
+        <v>1637</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2628,6 +2639,9 @@
       <c r="FE4" t="n">
         <v>1276</v>
       </c>
+      <c r="FF4" t="n">
+        <v>1276</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3115,6 +3129,9 @@
       <c r="FE5" t="n">
         <v>1269</v>
       </c>
+      <c r="FF5" t="n">
+        <v>1269</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3602,6 +3619,9 @@
       <c r="FE6" t="n">
         <v>1197</v>
       </c>
+      <c r="FF6" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4089,6 +4109,9 @@
       <c r="FE7" t="n">
         <v>1019</v>
       </c>
+      <c r="FF7" t="n">
+        <v>1019</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4576,6 +4599,9 @@
       <c r="FE8" t="n">
         <v>991</v>
       </c>
+      <c r="FF8" t="n">
+        <v>991</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5063,6 +5089,9 @@
       <c r="FE9" t="n">
         <v>947</v>
       </c>
+      <c r="FF9" t="n">
+        <v>947</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5550,6 +5579,9 @@
       <c r="FE10" t="n">
         <v>932</v>
       </c>
+      <c r="FF10" t="n">
+        <v>932</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6037,6 +6069,9 @@
       <c r="FE11" t="n">
         <v>905</v>
       </c>
+      <c r="FF11" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6524,6 +6559,9 @@
       <c r="FE12" t="n">
         <v>792</v>
       </c>
+      <c r="FF12" t="n">
+        <v>792</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -7011,6 +7049,9 @@
       <c r="FE13" t="n">
         <v>707</v>
       </c>
+      <c r="FF13" t="n">
+        <v>708</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -7498,6 +7539,9 @@
       <c r="FE14" t="n">
         <v>654</v>
       </c>
+      <c r="FF14" t="n">
+        <v>654</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7985,6 +8029,9 @@
       <c r="FE15" t="n">
         <v>589</v>
       </c>
+      <c r="FF15" t="n">
+        <v>592</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -8472,6 +8519,9 @@
       <c r="FE16" t="n">
         <v>582</v>
       </c>
+      <c r="FF16" t="n">
+        <v>582</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -8959,6 +9009,9 @@
       <c r="FE17" t="n">
         <v>447</v>
       </c>
+      <c r="FF17" t="n">
+        <v>447</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -9446,6 +9499,9 @@
       <c r="FE18" t="n">
         <v>363</v>
       </c>
+      <c r="FF18" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -9933,6 +9989,9 @@
       <c r="FE19" t="n">
         <v>349</v>
       </c>
+      <c r="FF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -10420,6 +10479,9 @@
       <c r="FE20" t="n">
         <v>320</v>
       </c>
+      <c r="FF20" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -10907,6 +10969,9 @@
       <c r="FE21" t="n">
         <v>254</v>
       </c>
+      <c r="FF21" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -11394,6 +11459,9 @@
       <c r="FE22" t="n">
         <v>238</v>
       </c>
+      <c r="FF22" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -11881,6 +11949,9 @@
       <c r="FE23" t="n">
         <v>198</v>
       </c>
+      <c r="FF23" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -12368,6 +12439,9 @@
       <c r="FE24" t="n">
         <v>198</v>
       </c>
+      <c r="FF24" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -12855,6 +12929,9 @@
       <c r="FE25" t="n">
         <v>185</v>
       </c>
+      <c r="FF25" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -13342,6 +13419,9 @@
       <c r="FE26" t="n">
         <v>171</v>
       </c>
+      <c r="FF26" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -13829,6 +13909,9 @@
       <c r="FE27" t="n">
         <v>163</v>
       </c>
+      <c r="FF27" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -14316,6 +14399,9 @@
       <c r="FE28" t="n">
         <v>155</v>
       </c>
+      <c r="FF28" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -14803,6 +14889,9 @@
       <c r="FE29" t="n">
         <v>154</v>
       </c>
+      <c r="FF29" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -15290,6 +15379,9 @@
       <c r="FE30" t="n">
         <v>147</v>
       </c>
+      <c r="FF30" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -15777,6 +15869,9 @@
       <c r="FE31" t="n">
         <v>76</v>
       </c>
+      <c r="FF31" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -16264,6 +16359,9 @@
       <c r="FE32" t="n">
         <v>75</v>
       </c>
+      <c r="FF32" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -16751,6 +16849,9 @@
       <c r="FE33" t="n">
         <v>46</v>
       </c>
+      <c r="FF33" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -17238,6 +17339,9 @@
       <c r="FE34" t="n">
         <v>18</v>
       </c>
+      <c r="FF34" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -17723,6 +17827,9 @@
         <v>1</v>
       </c>
       <c r="FE35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF35" t="n">
         <v>1</v>
       </c>
     </row>
